--- a/RepA_BIGRAMAS_PDFs.xlsx
+++ b/RepA_BIGRAMAS_PDFs.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,31 +427,37 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.8" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="13.2" customWidth="1" min="3" max="3"/>
+    <col width="39322.8" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ranking</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Documento</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Contenido</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,7 +477,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -484,7 +497,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
